--- a/DataHolder.xlsx
+++ b/DataHolder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\Structure\BasicDataManagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F768F59-BF0F-49E8-86DF-10A7839A9B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6F4DFB-E12A-4DD1-96AC-9E983DBA9B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75792C7B-9BED-41AC-AF7F-E8A8D28D70CF}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{75792C7B-9BED-41AC-AF7F-E8A8D28D70CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -186,6 +186,141 @@
   </si>
   <si>
     <t>Rhyhorn</t>
+  </si>
+  <si>
+    <t>Falkner</t>
+  </si>
+  <si>
+    <t>Bugsy</t>
+  </si>
+  <si>
+    <t>Chuck</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>Flying</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Fighting</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Pidgey</t>
+  </si>
+  <si>
+    <t>Pidgeotto</t>
+  </si>
+  <si>
+    <t>Morty</t>
+  </si>
+  <si>
+    <t>Whitney</t>
+  </si>
+  <si>
+    <t>Scyther</t>
+  </si>
+  <si>
+    <t>Metapod</t>
+  </si>
+  <si>
+    <t>Kakuna</t>
+  </si>
+  <si>
+    <t>Clefairy</t>
+  </si>
+  <si>
+    <t>Milktank</t>
+  </si>
+  <si>
+    <t>Clair</t>
+  </si>
+  <si>
+    <t>Gastly</t>
+  </si>
+  <si>
+    <t>Haunter</t>
+  </si>
+  <si>
+    <t>Gengar</t>
+  </si>
+  <si>
+    <t>Primeape</t>
+  </si>
+  <si>
+    <t>Poliwrath</t>
+  </si>
+  <si>
+    <t>Magnemite</t>
+  </si>
+  <si>
+    <t>Steelix</t>
+  </si>
+  <si>
+    <t>Pryce</t>
+  </si>
+  <si>
+    <t>Seel</t>
+  </si>
+  <si>
+    <t>Dewgong</t>
+  </si>
+  <si>
+    <t>Piloswine</t>
+  </si>
+  <si>
+    <t>Gyarados</t>
+  </si>
+  <si>
+    <t>Dragonair</t>
+  </si>
+  <si>
+    <t>Kingdra</t>
+  </si>
+  <si>
+    <t>Roxanne</t>
+  </si>
+  <si>
+    <t>Brawly</t>
+  </si>
+  <si>
+    <t>Wattson</t>
+  </si>
+  <si>
+    <t>Flannery</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t>Winona</t>
+  </si>
+  <si>
+    <t>Tate and Liza</t>
+  </si>
+  <si>
+    <t>Juan (R/S)</t>
+  </si>
+  <si>
+    <t>Wallace [E]</t>
   </si>
 </sst>
 </file>
@@ -557,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F056DC2B-F895-42C9-84E4-1E5B79DCA98A}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,6 +877,184 @@
         <v>49</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataHolder.xlsx
+++ b/DataHolder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\Structure\BasicDataManagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6F4DFB-E12A-4DD1-96AC-9E983DBA9B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29622855-D6FB-4B64-A078-BF7BDBFC7EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{75792C7B-9BED-41AC-AF7F-E8A8D28D70CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -317,10 +317,94 @@
     <t>Tate and Liza</t>
   </si>
   <si>
-    <t>Juan (R/S)</t>
-  </si>
-  <si>
-    <t>Wallace [E]</t>
+    <t>Nosepass</t>
+  </si>
+  <si>
+    <t>Machop</t>
+  </si>
+  <si>
+    <t>Meditite</t>
+  </si>
+  <si>
+    <t>Makuhita</t>
+  </si>
+  <si>
+    <t>Electrike</t>
+  </si>
+  <si>
+    <t>Magneton</t>
+  </si>
+  <si>
+    <t>Manectric</t>
+  </si>
+  <si>
+    <t>Numel</t>
+  </si>
+  <si>
+    <t>Slugma</t>
+  </si>
+  <si>
+    <t>Camerupt</t>
+  </si>
+  <si>
+    <t>Torkoal</t>
+  </si>
+  <si>
+    <t>Spinda</t>
+  </si>
+  <si>
+    <t>Vigoroth</t>
+  </si>
+  <si>
+    <t>Linoone</t>
+  </si>
+  <si>
+    <t>Slaking</t>
+  </si>
+  <si>
+    <t>Swablu</t>
+  </si>
+  <si>
+    <t>Tropius</t>
+  </si>
+  <si>
+    <t>Pelipper</t>
+  </si>
+  <si>
+    <t>Skarmory</t>
+  </si>
+  <si>
+    <t>Altaria</t>
+  </si>
+  <si>
+    <t>Psychic</t>
+  </si>
+  <si>
+    <t>Claydol</t>
+  </si>
+  <si>
+    <t>Xatu</t>
+  </si>
+  <si>
+    <t>Lunatone</t>
+  </si>
+  <si>
+    <t>Solrock</t>
+  </si>
+  <si>
+    <t>Luvdisc</t>
+  </si>
+  <si>
+    <t>Whiscash</t>
+  </si>
+  <si>
+    <t>Sealeo</t>
+  </si>
+  <si>
+    <t>Crawdaunt</t>
+  </si>
+  <si>
+    <t>Juan</t>
   </si>
 </sst>
 </file>
@@ -692,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F056DC2B-F895-42C9-84E4-1E5B79DCA98A}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,7 +1074,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1010,49 +1094,164 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>94</v>
+        <v>122</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
